--- a/data/wcs-dev/WCS_DEV_tracker.xlsx
+++ b/data/wcs-dev/WCS_DEV_tracker.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rethin.silvester\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rethin\projects\wfo_tracker\data\wcs-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBB4545-3EC5-4859-8672-360E2B0B4FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E826BC-FCE0-4BB7-B493-4309603C1F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
   </bookViews>
   <sheets>
     <sheet name="WCS_Team_July_2025" sheetId="12" r:id="rId1"/>
-    <sheet name="WCS_Team_August_2025" sheetId="6" r:id="rId2"/>
+    <sheet name="WCS_Team_August_2025" sheetId="6" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="37">
   <si>
     <t>Employee Name</t>
   </si>
@@ -688,7 +688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085E24C1-89AF-4C9E-86AE-DD78930B77CB}">
   <dimension ref="A1:AJ36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
@@ -2133,8 +2133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D2793F-73F1-4265-B1CF-8D693D22CC02}">
   <dimension ref="A1:AJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2382,7 +2382,9 @@
       <c r="J3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="2"/>
+      <c r="K3" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="6"/>
@@ -2434,7 +2436,9 @@
       <c r="J4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="2"/>
+      <c r="K4" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="6"/>
@@ -2486,7 +2490,9 @@
       <c r="J5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="2"/>
+      <c r="K5" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="6"/>
@@ -2538,7 +2544,9 @@
       <c r="J6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="2"/>
+      <c r="K6" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="6"/>
@@ -2590,7 +2598,9 @@
       <c r="J7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="6"/>
@@ -2642,7 +2652,9 @@
       <c r="J8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="6"/>
@@ -2694,7 +2706,9 @@
       <c r="J9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="K9" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="6"/>
@@ -2746,7 +2760,9 @@
       <c r="J10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="2"/>
+      <c r="K10" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="6"/>
@@ -2798,7 +2814,9 @@
       <c r="J11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="K11" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="6"/>
@@ -2850,7 +2868,9 @@
       <c r="J12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="2"/>
+      <c r="K12" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="6"/>
@@ -2902,7 +2922,9 @@
       <c r="J13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="2"/>
+      <c r="K13" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="6"/>
@@ -2954,7 +2976,9 @@
       <c r="J14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="2"/>
+      <c r="K14" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="6"/>
@@ -3006,7 +3030,9 @@
       <c r="J15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="2"/>
+      <c r="K15" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="6"/>
@@ -3126,7 +3152,9 @@
       <c r="J17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="2"/>
+      <c r="K17" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="6"/>
@@ -3178,7 +3206,9 @@
       <c r="J18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="2"/>
+      <c r="K18" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="6"/>
@@ -3222,7 +3252,7 @@
       </c>
       <c r="B21" s="2">
         <f t="shared" ref="B21:B36" si="0">COUNTIF(F3:AG3,"WFO")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" ref="C21:C36" si="1">COUNTIF(F3:AG3,"WFH")</f>
@@ -3235,7 +3265,7 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="1"/>
@@ -3248,7 +3278,7 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="1"/>
@@ -3261,7 +3291,7 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="1"/>
@@ -3274,7 +3304,7 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="1"/>
@@ -3287,7 +3317,7 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="1"/>
@@ -3300,7 +3330,7 @@
       </c>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="1"/>
@@ -3313,7 +3343,7 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="1"/>
@@ -3326,7 +3356,7 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="1"/>
@@ -3339,7 +3369,7 @@
       </c>
       <c r="B30" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="1"/>
@@ -3352,7 +3382,7 @@
       </c>
       <c r="B31" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="1"/>
@@ -3365,7 +3395,7 @@
       </c>
       <c r="B32" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="1"/>
@@ -3378,7 +3408,7 @@
       </c>
       <c r="B33" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="1"/>
@@ -3404,7 +3434,7 @@
       </c>
       <c r="B35" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="1"/>
@@ -3417,7 +3447,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>

--- a/data/wcs-dev/WCS_DEV_tracker.xlsx
+++ b/data/wcs-dev/WCS_DEV_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rethin\projects\wfo_tracker\data\wcs-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E826BC-FCE0-4BB7-B493-4309603C1F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510B3D37-3BB4-4B95-A3C3-B432CB81428D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="37">
   <si>
     <t>Employee Name</t>
   </si>
@@ -689,7 +689,7 @@
   <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -949,11 +949,17 @@
       <c r="N3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
+      <c r="O3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
-      <c r="S3" s="2"/>
+      <c r="S3" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
@@ -1009,11 +1015,17 @@
       <c r="N4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+      <c r="O4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="2"/>
+      <c r="S4" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
@@ -1069,11 +1081,17 @@
       <c r="N5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
+      <c r="O5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="2"/>
+      <c r="S5" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
@@ -1129,11 +1147,17 @@
       <c r="N6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+      <c r="O6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
-      <c r="S6" s="2"/>
+      <c r="S6" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
@@ -1189,11 +1213,17 @@
       <c r="N7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
+      <c r="O7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
-      <c r="S7" s="2"/>
+      <c r="S7" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
@@ -1249,11 +1279,17 @@
       <c r="N8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
+      <c r="O8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
-      <c r="S8" s="2"/>
+      <c r="S8" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
@@ -1309,11 +1345,17 @@
       <c r="N9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+      <c r="O9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
-      <c r="S9" s="2"/>
+      <c r="S9" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
@@ -1369,11 +1411,17 @@
       <c r="N10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+      <c r="O10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="2"/>
+      <c r="S10" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
@@ -1429,11 +1477,17 @@
       <c r="N11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
+      <c r="O11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
-      <c r="S11" s="2"/>
+      <c r="S11" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
@@ -1489,11 +1543,17 @@
       <c r="N12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
+      <c r="O12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
-      <c r="S12" s="2"/>
+      <c r="S12" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
@@ -1549,11 +1609,17 @@
       <c r="N13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
+      <c r="O13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="2"/>
+      <c r="S13" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
@@ -1609,11 +1675,17 @@
       <c r="N14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
+      <c r="O14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
-      <c r="S14" s="2"/>
+      <c r="S14" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
@@ -1669,11 +1741,17 @@
       <c r="N15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
+      <c r="O15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
-      <c r="S15" s="2"/>
+      <c r="S15" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
@@ -1803,11 +1881,17 @@
       <c r="N17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
+      <c r="O17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="2"/>
+      <c r="S17" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
@@ -1863,11 +1947,17 @@
       <c r="N18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
+      <c r="O18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
-      <c r="S18" s="2"/>
+      <c r="S18" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
@@ -1903,11 +1993,11 @@
       </c>
       <c r="B21" s="2">
         <f>COUNTIF(F3:AJ3,"WFO")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" s="2">
         <f>COUNTIF(F3:AJ3,"WFH")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.35">
@@ -1916,11 +2006,11 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" ref="B22:B34" si="0">COUNTIF(F4:AJ4,"WFO")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ref="C22:C34" si="1">COUNTIF(F4:AJ4,"WFH")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.35">
@@ -1929,11 +2019,11 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.35">
@@ -1942,11 +2032,11 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.35">
@@ -1955,11 +2045,11 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.35">
@@ -1968,11 +2058,11 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.35">
@@ -1981,11 +2071,11 @@
       </c>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.35">
@@ -1994,11 +2084,11 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.35">
@@ -2007,11 +2097,11 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.35">
@@ -2020,11 +2110,11 @@
       </c>
       <c r="B30" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.35">
@@ -2033,11 +2123,11 @@
       </c>
       <c r="B31" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.35">
@@ -2046,11 +2136,11 @@
       </c>
       <c r="B32" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -2059,11 +2149,11 @@
       </c>
       <c r="B33" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -2085,24 +2175,24 @@
       </c>
       <c r="B35" s="2">
         <f>COUNTIF(F17:AJ17,"WFO")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35" s="2">
         <f>COUNTIF(F17:AJ17,"WFH")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <f>COUNTIF(F18:AJ18,"WFO")</f>
-        <v>5</v>
-      </c>
-      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="C36" s="2">
         <f>COUNTIF(F18:AJ18,"WFH")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/wcs-dev/WCS_DEV_tracker.xlsx
+++ b/data/wcs-dev/WCS_DEV_tracker.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rethin\projects\wfo_tracker\data\wcs-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510B3D37-3BB4-4B95-A3C3-B432CB81428D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A249B2B-B5E6-486C-8F5A-9EC1C1A4495E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
   </bookViews>
   <sheets>
     <sheet name="WCS_Team_July_2025" sheetId="12" r:id="rId1"/>
-    <sheet name="WCS_Team_August_2025" sheetId="6" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="37">
   <si>
     <t>Employee Name</t>
   </si>
@@ -295,37 +294,7 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2205,1355 +2174,6 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="B21:B35">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
-      <formula>11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
-      <formula>12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D2793F-73F1-4265-B1CF-8D693D22CC02}">
-  <dimension ref="A1:AJ36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="36" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1">
-        <v>45870</v>
-      </c>
-      <c r="G1" s="1">
-        <v>45871</v>
-      </c>
-      <c r="H1" s="1">
-        <v>45872</v>
-      </c>
-      <c r="I1" s="1">
-        <v>45873</v>
-      </c>
-      <c r="J1" s="1">
-        <v>45874</v>
-      </c>
-      <c r="K1" s="1">
-        <v>45875</v>
-      </c>
-      <c r="L1" s="1">
-        <v>45876</v>
-      </c>
-      <c r="M1" s="1">
-        <v>45877</v>
-      </c>
-      <c r="N1" s="1">
-        <v>45878</v>
-      </c>
-      <c r="O1" s="1">
-        <v>45879</v>
-      </c>
-      <c r="P1" s="1">
-        <v>45880</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>45881</v>
-      </c>
-      <c r="R1" s="1">
-        <v>45882</v>
-      </c>
-      <c r="S1" s="1">
-        <v>45883</v>
-      </c>
-      <c r="T1" s="1">
-        <v>45884</v>
-      </c>
-      <c r="U1" s="1">
-        <v>45885</v>
-      </c>
-      <c r="V1" s="1">
-        <v>45886</v>
-      </c>
-      <c r="W1" s="1">
-        <v>45887</v>
-      </c>
-      <c r="X1" s="1">
-        <v>45888</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>45889</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>45890</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>45891</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>45892</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>45893</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>45894</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>45895</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>45896</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>45897</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>45898</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>45899</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>45900</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="6"/>
-      <c r="AJ4" s="6"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="6"/>
-      <c r="AJ5" s="6"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="6"/>
-      <c r="AJ6" s="6"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="6"/>
-      <c r="AJ9" s="6"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
-      <c r="AI10" s="6"/>
-      <c r="AJ10" s="6"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="6"/>
-      <c r="AJ11" s="6"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
-      <c r="AH12" s="2"/>
-      <c r="AI12" s="6"/>
-      <c r="AJ12" s="6"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="2"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="6"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
-      <c r="AH14" s="2"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="6"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="2"/>
-      <c r="AG15" s="2"/>
-      <c r="AH15" s="2"/>
-      <c r="AI15" s="6"/>
-      <c r="AJ15" s="6"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="T16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="2"/>
-      <c r="AI16" s="6"/>
-      <c r="AJ16" s="6"/>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="2"/>
-      <c r="AG17" s="2"/>
-      <c r="AH17" s="2"/>
-      <c r="AI17" s="6"/>
-      <c r="AJ17" s="6"/>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
-      <c r="AH18" s="2"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="6"/>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="2">
-        <f t="shared" ref="B21:B36" si="0">COUNTIF(F3:AG3,"WFO")</f>
-        <v>3</v>
-      </c>
-      <c r="C21" s="2">
-        <f t="shared" ref="C21:C36" si="1">COUNTIF(F3:AG3,"WFH")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C22" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C23" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C24" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C25" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C26" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C27" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C28" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C29" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C30" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C31" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C32" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C33" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C34" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C35" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-  </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="B21:B35">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>11</formula>
     </cfRule>

--- a/data/wcs-dev/WCS_DEV_tracker.xlsx
+++ b/data/wcs-dev/WCS_DEV_tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rethin\projects\wfo_tracker\data\wcs-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A249B2B-B5E6-486C-8F5A-9EC1C1A4495E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542D245E-6116-476B-94C0-1874C8D7EB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
   </bookViews>
   <sheets>
     <sheet name="WCS_Team_July_2025" sheetId="12" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="37">
   <si>
     <t>Employee Name</t>
   </si>
@@ -658,20 +658,20 @@
   <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="Z18" sqref="Z18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="36" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="36" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -781,7 +781,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -881,7 +881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -929,13 +929,23 @@
       <c r="S3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
+      <c r="T3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
-      <c r="Z3" s="2"/>
+      <c r="Z3" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
@@ -947,7 +957,7 @@
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -995,13 +1005,23 @@
       <c r="S4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
+      <c r="T4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
-      <c r="Z4" s="2"/>
+      <c r="Z4" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
@@ -1013,7 +1033,7 @@
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1061,13 +1081,23 @@
       <c r="S5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
+      <c r="T5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="X5" s="6"/>
       <c r="Y5" s="6"/>
-      <c r="Z5" s="2"/>
+      <c r="Z5" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
@@ -1079,7 +1109,7 @@
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1127,13 +1157,23 @@
       <c r="S6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
+      <c r="T6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
-      <c r="Z6" s="2"/>
+      <c r="Z6" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
@@ -1145,7 +1185,7 @@
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1193,13 +1233,23 @@
       <c r="S7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
+      <c r="T7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
-      <c r="Z7" s="2"/>
+      <c r="Z7" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
@@ -1211,7 +1261,7 @@
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1259,13 +1309,23 @@
       <c r="S8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
+      <c r="T8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
-      <c r="Z8" s="2"/>
+      <c r="Z8" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
@@ -1277,7 +1337,7 @@
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1325,13 +1385,23 @@
       <c r="S9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
+      <c r="T9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
-      <c r="Z9" s="2"/>
+      <c r="Z9" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
@@ -1343,7 +1413,7 @@
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1391,13 +1461,23 @@
       <c r="S10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
+      <c r="T10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
-      <c r="Z10" s="2"/>
+      <c r="Z10" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
@@ -1409,7 +1489,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1457,13 +1537,23 @@
       <c r="S11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
+      <c r="T11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
-      <c r="Z11" s="2"/>
+      <c r="Z11" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
@@ -1475,7 +1565,7 @@
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -1523,13 +1613,23 @@
       <c r="S12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
+      <c r="T12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
-      <c r="Z12" s="2"/>
+      <c r="Z12" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
@@ -1541,7 +1641,7 @@
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1589,13 +1689,23 @@
       <c r="S13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
+      <c r="T13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
-      <c r="Z13" s="2"/>
+      <c r="Z13" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
@@ -1607,7 +1717,7 @@
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -1655,13 +1765,23 @@
       <c r="S14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
+      <c r="T14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
-      <c r="Z14" s="2"/>
+      <c r="Z14" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
@@ -1673,7 +1793,7 @@
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -1721,13 +1841,23 @@
       <c r="S15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
+      <c r="T15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
-      <c r="Z15" s="2"/>
+      <c r="Z15" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
@@ -1739,7 +1869,7 @@
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -1801,7 +1931,9 @@
       </c>
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
-      <c r="Z16" s="2"/>
+      <c r="Z16" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
@@ -1813,7 +1945,7 @@
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1861,13 +1993,23 @@
       <c r="S17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
+      <c r="T17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
-      <c r="Z17" s="2"/>
+      <c r="Z17" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
@@ -1879,7 +2021,7 @@
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -1927,13 +2069,23 @@
       <c r="S18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
+      <c r="T18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
-      <c r="Z18" s="2"/>
+      <c r="Z18" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
@@ -1945,7 +2097,7 @@
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>0</v>
       </c>
@@ -1956,176 +2108,176 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="2">
         <f>COUNTIF(F3:AJ3,"WFO")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C21" s="2">
         <f>COUNTIF(F3:AJ3,"WFH")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="2">
         <f t="shared" ref="B22:B34" si="0">COUNTIF(F4:AJ4,"WFO")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ref="C22:C34" si="1">COUNTIF(F4:AJ4,"WFH")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B33" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
@@ -2138,30 +2290,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B35" s="2">
         <f>COUNTIF(F17:AJ17,"WFO")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C35" s="2">
         <f>COUNTIF(F17:AJ17,"WFH")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="2">
         <f>COUNTIF(F18:AJ18,"WFO")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C36" s="2">
         <f>COUNTIF(F18:AJ18,"WFH")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/wcs-dev/WCS_DEV_tracker.xlsx
+++ b/data/wcs-dev/WCS_DEV_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rethin\projects\wfo_tracker\data\wcs-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542D245E-6116-476B-94C0-1874C8D7EB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA32551-4A42-4CAF-B74B-6CA785A58AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="37">
   <si>
     <t>Employee Name</t>
   </si>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085E24C1-89AF-4C9E-86AE-DD78930B77CB}">
   <dimension ref="A1:AJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z18" sqref="Z18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,7 +946,9 @@
       <c r="Z3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="2"/>
+      <c r="AA3" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
@@ -1022,7 +1024,9 @@
       <c r="Z4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA4" s="2"/>
+      <c r="AA4" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
@@ -1095,10 +1099,12 @@
       </c>
       <c r="X5" s="6"/>
       <c r="Y5" s="6"/>
-      <c r="Z5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA5" s="2"/>
+      <c r="Z5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
@@ -1174,7 +1180,9 @@
       <c r="Z6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA6" s="2"/>
+      <c r="AA6" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
@@ -1250,7 +1258,9 @@
       <c r="Z7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA7" s="2"/>
+      <c r="AA7" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
@@ -1323,10 +1333,12 @@
       </c>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
-      <c r="Z8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA8" s="2"/>
+      <c r="Z8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
@@ -1402,7 +1414,9 @@
       <c r="Z9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA9" s="2"/>
+      <c r="AA9" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
@@ -1478,7 +1492,9 @@
       <c r="Z10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA10" s="2"/>
+      <c r="AA10" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
@@ -1554,7 +1570,9 @@
       <c r="Z11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA11" s="2"/>
+      <c r="AA11" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
@@ -1630,7 +1648,9 @@
       <c r="Z12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA12" s="2"/>
+      <c r="AA12" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
@@ -1706,7 +1726,9 @@
       <c r="Z13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA13" s="2"/>
+      <c r="AA13" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
@@ -1782,7 +1804,9 @@
       <c r="Z14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA14" s="2"/>
+      <c r="AA14" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
@@ -1858,7 +1882,9 @@
       <c r="Z15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA15" s="2"/>
+      <c r="AA15" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
@@ -1934,7 +1960,9 @@
       <c r="Z16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AA16" s="2"/>
+      <c r="AA16" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
@@ -2010,7 +2038,9 @@
       <c r="Z17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA17" s="2"/>
+      <c r="AA17" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
@@ -2086,7 +2116,9 @@
       <c r="Z18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA18" s="2"/>
+      <c r="AA18" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
@@ -2114,7 +2146,7 @@
       </c>
       <c r="B21" s="2">
         <f>COUNTIF(F3:AJ3,"WFO")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21" s="2">
         <f>COUNTIF(F3:AJ3,"WFH")</f>
@@ -2127,7 +2159,7 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" ref="B22:B34" si="0">COUNTIF(F4:AJ4,"WFO")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ref="C22:C34" si="1">COUNTIF(F4:AJ4,"WFH")</f>
@@ -2140,7 +2172,7 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="1"/>
@@ -2153,7 +2185,7 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="1"/>
@@ -2166,7 +2198,7 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="1"/>
@@ -2179,7 +2211,7 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="1"/>
@@ -2192,7 +2224,7 @@
       </c>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="1"/>
@@ -2205,7 +2237,7 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="1"/>
@@ -2218,7 +2250,7 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="1"/>
@@ -2231,7 +2263,7 @@
       </c>
       <c r="B30" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="1"/>
@@ -2244,7 +2276,7 @@
       </c>
       <c r="B31" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="1"/>
@@ -2257,7 +2289,7 @@
       </c>
       <c r="B32" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="1"/>
@@ -2270,7 +2302,7 @@
       </c>
       <c r="B33" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="1"/>
@@ -2283,7 +2315,7 @@
       </c>
       <c r="B34" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="1"/>
@@ -2296,7 +2328,7 @@
       </c>
       <c r="B35" s="2">
         <f>COUNTIF(F17:AJ17,"WFO")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C35" s="2">
         <f>COUNTIF(F17:AJ17,"WFH")</f>
@@ -2309,7 +2341,7 @@
       </c>
       <c r="B36" s="2">
         <f>COUNTIF(F18:AJ18,"WFO")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2">
         <f>COUNTIF(F18:AJ18,"WFH")</f>

--- a/data/wcs-dev/WCS_DEV_tracker.xlsx
+++ b/data/wcs-dev/WCS_DEV_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rethin\projects\wfo_tracker\data\wcs-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA32551-4A42-4CAF-B74B-6CA785A58AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231A7D7E-6502-4092-A91B-03BC157979A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="38">
   <si>
     <t>Employee Name</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>SL</t>
+  </si>
+  <si>
+    <t>PL</t>
   </si>
 </sst>
 </file>
@@ -657,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085E24C1-89AF-4C9E-86AE-DD78930B77CB}">
   <dimension ref="A1:AJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AC3" sqref="AC3:AD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,9 +952,15 @@
       <c r="AA3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
+      <c r="AB3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AE3" s="6"/>
       <c r="AF3" s="6"/>
       <c r="AG3" s="2"/>
@@ -1027,9 +1036,15 @@
       <c r="AA4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
+      <c r="AB4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AE4" s="6"/>
       <c r="AF4" s="6"/>
       <c r="AG4" s="2"/>
@@ -1103,11 +1118,17 @@
         <v>36</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AE5" s="6"/>
       <c r="AF5" s="6"/>
       <c r="AG5" s="2"/>
@@ -1183,9 +1204,15 @@
       <c r="AA6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
+      <c r="AB6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD6" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AE6" s="6"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="2"/>
@@ -1261,9 +1288,15 @@
       <c r="AA7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
+      <c r="AB7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD7" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AE7" s="6"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="2"/>
@@ -1334,14 +1367,20 @@
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
       <c r="Z8" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AE8" s="6"/>
       <c r="AF8" s="6"/>
       <c r="AG8" s="2"/>
@@ -1417,9 +1456,15 @@
       <c r="AA9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
+      <c r="AB9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD9" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AE9" s="6"/>
       <c r="AF9" s="6"/>
       <c r="AG9" s="2"/>
@@ -1495,9 +1540,15 @@
       <c r="AA10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
+      <c r="AB10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD10" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AE10" s="6"/>
       <c r="AF10" s="6"/>
       <c r="AG10" s="2"/>
@@ -1573,9 +1624,15 @@
       <c r="AA11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
+      <c r="AB11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD11" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AE11" s="6"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="2"/>
@@ -1651,9 +1708,15 @@
       <c r="AA12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
+      <c r="AB12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD12" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AE12" s="6"/>
       <c r="AF12" s="6"/>
       <c r="AG12" s="2"/>
@@ -1729,9 +1792,15 @@
       <c r="AA13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
+      <c r="AB13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD13" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AE13" s="6"/>
       <c r="AF13" s="6"/>
       <c r="AG13" s="2"/>
@@ -1807,9 +1876,15 @@
       <c r="AA14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
+      <c r="AB14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD14" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AE14" s="6"/>
       <c r="AF14" s="6"/>
       <c r="AG14" s="2"/>
@@ -1885,9 +1960,15 @@
       <c r="AA15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
+      <c r="AB15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD15" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AE15" s="6"/>
       <c r="AF15" s="6"/>
       <c r="AG15" s="2"/>
@@ -1960,12 +2041,18 @@
       <c r="Z16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AA16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
+      <c r="AA16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD16" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AE16" s="6"/>
       <c r="AF16" s="6"/>
       <c r="AG16" s="2"/>
@@ -2041,9 +2128,15 @@
       <c r="AA17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
+      <c r="AB17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD17" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AE17" s="6"/>
       <c r="AF17" s="6"/>
       <c r="AG17" s="2"/>
@@ -2119,9 +2212,15 @@
       <c r="AA18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
+      <c r="AB18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD18" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AE18" s="6"/>
       <c r="AF18" s="6"/>
       <c r="AG18" s="2"/>
@@ -2146,11 +2245,11 @@
       </c>
       <c r="B21" s="2">
         <f>COUNTIF(F3:AJ3,"WFO")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" s="2">
         <f>COUNTIF(F3:AJ3,"WFH")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
@@ -2159,11 +2258,11 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" ref="B22:B34" si="0">COUNTIF(F4:AJ4,"WFO")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ref="C22:C34" si="1">COUNTIF(F4:AJ4,"WFH")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
@@ -2172,11 +2271,11 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
@@ -2185,11 +2284,11 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
@@ -2198,11 +2297,11 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
@@ -2215,7 +2314,7 @@
       </c>
       <c r="C26" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
@@ -2224,11 +2323,11 @@
       </c>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
@@ -2237,11 +2336,11 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
@@ -2250,11 +2349,11 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
@@ -2263,11 +2362,11 @@
       </c>
       <c r="B30" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
@@ -2280,7 +2379,7 @@
       </c>
       <c r="C31" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
@@ -2289,11 +2388,11 @@
       </c>
       <c r="B32" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2302,11 +2401,11 @@
       </c>
       <c r="B33" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2315,11 +2414,11 @@
       </c>
       <c r="B34" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2328,11 +2427,11 @@
       </c>
       <c r="B35" s="2">
         <f>COUNTIF(F17:AJ17,"WFO")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C35" s="2">
         <f>COUNTIF(F17:AJ17,"WFH")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2341,11 +2440,11 @@
       </c>
       <c r="B36" s="2">
         <f>COUNTIF(F18:AJ18,"WFO")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C36" s="2">
         <f>COUNTIF(F18:AJ18,"WFH")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/wcs-dev/WCS_DEV_tracker.xlsx
+++ b/data/wcs-dev/WCS_DEV_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rethin\projects\wfo_tracker\data\wcs-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231A7D7E-6502-4092-A91B-03BC157979A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB61173-B25C-4BFA-9E3D-4D845947750A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
   </bookViews>
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085E24C1-89AF-4C9E-86AE-DD78930B77CB}">
   <dimension ref="A1:AJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3:AD18"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1370,13 +1370,13 @@
         <v>37</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC8" s="5" t="s">
-        <v>17</v>
+        <v>17</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AD8" s="5" t="s">
         <v>17</v>
@@ -2310,11 +2310,11 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">

--- a/data/wcs-dev/WCS_DEV_tracker.xlsx
+++ b/data/wcs-dev/WCS_DEV_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rethin\projects\wfo_tracker\data\wcs-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB61173-B25C-4BFA-9E3D-4D845947750A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F81FA4-F6F4-4C26-A01B-DDB22AEF379A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
   </bookViews>
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085E24C1-89AF-4C9E-86AE-DD78930B77CB}">
   <dimension ref="A1:AJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,8 +1123,8 @@
       <c r="AB5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AC5" s="5" t="s">
-        <v>17</v>
+      <c r="AC5" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AD5" s="5" t="s">
         <v>17</v>
@@ -2271,11 +2271,11 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">

--- a/data/wcs-dev/WCS_DEV_tracker.xlsx
+++ b/data/wcs-dev/WCS_DEV_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rethin\projects\wfo_tracker\data\wcs-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F81FA4-F6F4-4C26-A01B-DDB22AEF379A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C0AF50-9348-4198-8B06-D6F16ECDA332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
   </bookViews>
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085E24C1-89AF-4C9E-86AE-DD78930B77CB}">
   <dimension ref="A1:AJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,8 +1378,8 @@
       <c r="AC8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AD8" s="5" t="s">
-        <v>17</v>
+      <c r="AD8" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AE8" s="6"/>
       <c r="AF8" s="6"/>
@@ -1798,8 +1798,8 @@
       <c r="AC13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AD13" s="5" t="s">
-        <v>17</v>
+      <c r="AD13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AE13" s="6"/>
       <c r="AF13" s="6"/>
@@ -2310,11 +2310,11 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
@@ -2375,11 +2375,11 @@
       </c>
       <c r="B31" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">

--- a/data/wcs-dev/WCS_DEV_tracker.xlsx
+++ b/data/wcs-dev/WCS_DEV_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rethin\projects\wfo_tracker\data\wcs-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C0AF50-9348-4198-8B06-D6F16ECDA332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967C44B7-221E-4062-BDE3-B8EEEA94C84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
   </bookViews>
@@ -661,7 +661,7 @@
   <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AC13" sqref="AC13"/>
+      <selection activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,8 +1126,8 @@
       <c r="AC5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AD5" s="5" t="s">
-        <v>17</v>
+      <c r="AD5" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="AE5" s="6"/>
       <c r="AF5" s="6"/>
@@ -2271,11 +2271,11 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">

--- a/data/wcs-dev/WCS_DEV_tracker.xlsx
+++ b/data/wcs-dev/WCS_DEV_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rethin\projects\wfo_tracker\data\wcs-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967C44B7-221E-4062-BDE3-B8EEEA94C84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A4566E-EA27-46A7-94AF-D7AB7BED7ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
   </bookViews>
@@ -160,7 +160,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,8 +210,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,6 +245,24 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -271,7 +296,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -290,6 +315,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -660,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085E24C1-89AF-4C9E-86AE-DD78930B77CB}">
   <dimension ref="A1:AJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AD5" sqref="AD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:AJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,88 +1082,88 @@
       <c r="AJ4" s="2"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="5" t="s">
+      <c r="F5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="V5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AA5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
+      <c r="AA5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1305,88 +1334,88 @@
       <c r="AJ7" s="2"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="5" t="s">
+      <c r="F8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AA8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
+      <c r="AA8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1991,16 +2020,16 @@
         <v>15</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>

--- a/data/wcs-dev/WCS_DEV_tracker.xlsx
+++ b/data/wcs-dev/WCS_DEV_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rethin\projects\wfo_tracker\data\wcs-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A4566E-EA27-46A7-94AF-D7AB7BED7ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181EBF74-A52E-4BE5-BE79-7695BB7C33D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="38">
   <si>
     <t>Employee Name</t>
   </si>
@@ -309,16 +309,16 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085E24C1-89AF-4C9E-86AE-DD78930B77CB}">
   <dimension ref="A1:AJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:AJ8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AC16" sqref="AC16:AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,19 +704,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1">
@@ -814,11 +814,11 @@
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
@@ -992,8 +992,12 @@
       </c>
       <c r="AE3" s="6"/>
       <c r="AF3" s="6"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
+      <c r="AG3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
     </row>
@@ -1076,94 +1080,102 @@
       </c>
       <c r="AE4" s="6"/>
       <c r="AF4" s="6"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
+      <c r="AG4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="T5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="V5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="W5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="12" t="s">
+      <c r="F5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AA5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
+      <c r="AA5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1244,8 +1256,12 @@
       </c>
       <c r="AE6" s="6"/>
       <c r="AF6" s="6"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
+      <c r="AG6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
     </row>
@@ -1328,94 +1344,102 @@
       </c>
       <c r="AE7" s="6"/>
       <c r="AF7" s="6"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
+      <c r="AG7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH7" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="T8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="U8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="V8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="W8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="12" t="s">
+      <c r="F8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="V8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AA8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
+      <c r="AA8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1496,8 +1520,12 @@
       </c>
       <c r="AE9" s="6"/>
       <c r="AF9" s="6"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
+      <c r="AG9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH9" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
     </row>
@@ -1580,8 +1608,12 @@
       </c>
       <c r="AE10" s="6"/>
       <c r="AF10" s="6"/>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
+      <c r="AG10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH10" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
@@ -1664,8 +1696,12 @@
       </c>
       <c r="AE11" s="6"/>
       <c r="AF11" s="6"/>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="2"/>
+      <c r="AG11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH11" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
     </row>
@@ -1748,8 +1784,12 @@
       </c>
       <c r="AE12" s="6"/>
       <c r="AF12" s="6"/>
-      <c r="AG12" s="2"/>
-      <c r="AH12" s="2"/>
+      <c r="AG12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH12" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
     </row>
@@ -1832,8 +1872,12 @@
       </c>
       <c r="AE13" s="6"/>
       <c r="AF13" s="6"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="2"/>
+      <c r="AG13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH13" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
     </row>
@@ -1916,8 +1960,12 @@
       </c>
       <c r="AE14" s="6"/>
       <c r="AF14" s="6"/>
-      <c r="AG14" s="2"/>
-      <c r="AH14" s="2"/>
+      <c r="AG14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH14" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
     </row>
@@ -2000,10 +2048,18 @@
       </c>
       <c r="AE15" s="6"/>
       <c r="AF15" s="6"/>
-      <c r="AG15" s="2"/>
-      <c r="AH15" s="2"/>
-      <c r="AI15" s="2"/>
-      <c r="AJ15" s="2"/>
+      <c r="AG15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ15" s="10" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -2077,17 +2133,25 @@
         <v>36</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="AD16" s="5" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="AE16" s="6"/>
       <c r="AF16" s="6"/>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="2"/>
-      <c r="AI16" s="2"/>
-      <c r="AJ16" s="2"/>
+      <c r="AG16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ16" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -2168,8 +2232,12 @@
       </c>
       <c r="AE17" s="6"/>
       <c r="AF17" s="6"/>
-      <c r="AG17" s="2"/>
-      <c r="AH17" s="2"/>
+      <c r="AG17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH17" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
     </row>
@@ -2252,8 +2320,12 @@
       </c>
       <c r="AE18" s="6"/>
       <c r="AF18" s="6"/>
-      <c r="AG18" s="2"/>
-      <c r="AH18" s="2"/>
+      <c r="AG18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH18" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
     </row>
@@ -2274,7 +2346,7 @@
       </c>
       <c r="B21" s="2">
         <f>COUNTIF(F3:AJ3,"WFO")</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C21" s="2">
         <f>COUNTIF(F3:AJ3,"WFH")</f>
@@ -2287,7 +2359,7 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" ref="B22:B34" si="0">COUNTIF(F4:AJ4,"WFO")</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ref="C22:C34" si="1">COUNTIF(F4:AJ4,"WFH")</f>
@@ -2300,7 +2372,7 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="1"/>
@@ -2313,7 +2385,7 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="1"/>
@@ -2326,7 +2398,7 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="1"/>
@@ -2339,7 +2411,7 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="1"/>
@@ -2352,7 +2424,7 @@
       </c>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="1"/>
@@ -2365,7 +2437,7 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="1"/>
@@ -2378,7 +2450,7 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="1"/>
@@ -2391,7 +2463,7 @@
       </c>
       <c r="B30" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="1"/>
@@ -2404,7 +2476,7 @@
       </c>
       <c r="B31" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="1"/>
@@ -2417,7 +2489,7 @@
       </c>
       <c r="B32" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="1"/>
@@ -2447,7 +2519,7 @@
       </c>
       <c r="C34" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2456,7 +2528,7 @@
       </c>
       <c r="B35" s="2">
         <f>COUNTIF(F17:AJ17,"WFO")</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C35" s="2">
         <f>COUNTIF(F17:AJ17,"WFH")</f>
@@ -2469,7 +2541,7 @@
       </c>
       <c r="B36" s="2">
         <f>COUNTIF(F18:AJ18,"WFO")</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C36" s="2">
         <f>COUNTIF(F18:AJ18,"WFH")</f>

--- a/data/wcs-dev/WCS_DEV_tracker.xlsx
+++ b/data/wcs-dev/WCS_DEV_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rethin\projects\wfo_tracker\data\wcs-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181EBF74-A52E-4BE5-BE79-7695BB7C33D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F58B318-B33C-4DB3-A58E-544645239D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="38">
   <si>
     <t>Employee Name</t>
   </si>
@@ -690,7 +690,7 @@
   <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AC16" sqref="AC16:AD16"/>
+      <selection activeCell="AJ17" sqref="AJ17:AJ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,8 +998,12 @@
       <c r="AH3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
+      <c r="AI3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1086,8 +1090,12 @@
       <c r="AH4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
+      <c r="AI4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -1174,8 +1182,12 @@
       <c r="AH5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AI5" s="8"/>
-      <c r="AJ5" s="8"/>
+      <c r="AI5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1262,8 +1274,12 @@
       <c r="AH6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
+      <c r="AI6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ6" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1350,8 +1366,12 @@
       <c r="AH7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
+      <c r="AI7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ7" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -1438,8 +1458,12 @@
       <c r="AH8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="8"/>
+      <c r="AI8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1526,8 +1550,12 @@
       <c r="AH9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
+      <c r="AI9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ9" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1614,8 +1642,12 @@
       <c r="AH10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AI10" s="2"/>
-      <c r="AJ10" s="2"/>
+      <c r="AI10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ10" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -1702,8 +1734,12 @@
       <c r="AH11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="2"/>
+      <c r="AI11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ11" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -1790,8 +1826,12 @@
       <c r="AH12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AI12" s="2"/>
-      <c r="AJ12" s="2"/>
+      <c r="AI12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ12" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -1878,8 +1918,12 @@
       <c r="AH13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AI13" s="2"/>
-      <c r="AJ13" s="2"/>
+      <c r="AI13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ13" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -1966,8 +2010,12 @@
       <c r="AH14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AI14" s="2"/>
-      <c r="AJ14" s="2"/>
+      <c r="AI14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ14" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -2238,8 +2286,12 @@
       <c r="AH17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AI17" s="2"/>
-      <c r="AJ17" s="2"/>
+      <c r="AI17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ17" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -2326,8 +2378,12 @@
       <c r="AH18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AI18" s="2"/>
-      <c r="AJ18" s="2"/>
+      <c r="AI18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ18" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
@@ -2346,11 +2402,11 @@
       </c>
       <c r="B21" s="2">
         <f>COUNTIF(F3:AJ3,"WFO")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" s="2">
         <f>COUNTIF(F3:AJ3,"WFH")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
@@ -2359,11 +2415,11 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" ref="B22:B34" si="0">COUNTIF(F4:AJ4,"WFO")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ref="C22:C34" si="1">COUNTIF(F4:AJ4,"WFH")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
@@ -2372,11 +2428,11 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
@@ -2385,11 +2441,11 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
@@ -2398,11 +2454,11 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
@@ -2411,11 +2467,11 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
@@ -2424,11 +2480,11 @@
       </c>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
@@ -2437,11 +2493,11 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
@@ -2450,11 +2506,11 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
@@ -2463,11 +2519,11 @@
       </c>
       <c r="B30" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
@@ -2476,11 +2532,11 @@
       </c>
       <c r="B31" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
@@ -2489,11 +2545,11 @@
       </c>
       <c r="B32" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2528,11 +2584,11 @@
       </c>
       <c r="B35" s="2">
         <f>COUNTIF(F17:AJ17,"WFO")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C35" s="2">
         <f>COUNTIF(F17:AJ17,"WFH")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2541,11 +2597,11 @@
       </c>
       <c r="B36" s="2">
         <f>COUNTIF(F18:AJ18,"WFO")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C36" s="2">
         <f>COUNTIF(F18:AJ18,"WFH")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/wcs-dev/WCS_DEV_tracker.xlsx
+++ b/data/wcs-dev/WCS_DEV_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rethin\projects\wfo_tracker\data\wcs-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0511EEDC-0EC0-4B47-9D9C-181753E2AF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D5E705-3784-4CD2-8EF4-1909CAD7869B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
   </bookViews>
@@ -691,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085E24C1-89AF-4C9E-86AE-DD78930B77CB}">
   <dimension ref="A1:AJ36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AJ15" sqref="AJ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2098,17 +2098,17 @@
       </c>
       <c r="AE15" s="6"/>
       <c r="AF15" s="6"/>
-      <c r="AG15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI15" s="4" t="s">
-        <v>16</v>
+      <c r="AG15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI15" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="AJ15" s="5" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
@@ -2560,11 +2560,11 @@
       </c>
       <c r="B33" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2635,7 +2635,7 @@
   <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3448,8 +3448,8 @@
       <c r="E15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>16</v>
+      <c r="F15" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -3497,7 +3497,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="B33" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="1"/>

--- a/data/wcs-dev/WCS_DEV_tracker.xlsx
+++ b/data/wcs-dev/WCS_DEV_tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rethin\projects\wfo_tracker\data\wcs-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D5E705-3784-4CD2-8EF4-1909CAD7869B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74510D0-099D-4119-95F2-51292D0195AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
   </bookViews>
   <sheets>
     <sheet name="WCS_Team_July_2025" sheetId="12" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="38">
   <si>
     <t>Employee Name</t>
   </si>
@@ -692,7 +692,7 @@
   <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AJ15" sqref="AJ15"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2635,7 +2635,7 @@
   <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2872,12 +2872,14 @@
       <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>16</v>
+      <c r="F3" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="2"/>
+      <c r="I3" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -2920,12 +2922,14 @@
       <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>16</v>
+      <c r="F4" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="2"/>
+      <c r="I4" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -2968,12 +2972,14 @@
       <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>16</v>
+      <c r="F5" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="2"/>
+      <c r="I5" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -3016,12 +3022,14 @@
       <c r="E6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>16</v>
+      <c r="F6" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="2"/>
+      <c r="I6" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -3064,12 +3072,14 @@
       <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>16</v>
+      <c r="F7" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="2"/>
+      <c r="I7" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -3112,12 +3122,14 @@
       <c r="E8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>16</v>
+      <c r="F8" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="2"/>
+      <c r="I8" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -3160,12 +3172,14 @@
       <c r="E9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>16</v>
+      <c r="F9" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="2"/>
+      <c r="I9" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -3208,12 +3222,14 @@
       <c r="E10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>16</v>
+      <c r="F10" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -3256,12 +3272,14 @@
       <c r="E11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>16</v>
+      <c r="F11" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="2"/>
+      <c r="I11" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -3304,12 +3322,14 @@
       <c r="E12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>16</v>
+      <c r="F12" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="2"/>
+      <c r="I12" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -3352,12 +3372,14 @@
       <c r="E13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>16</v>
+      <c r="F13" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -3400,12 +3422,14 @@
       <c r="E14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>16</v>
+      <c r="F14" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="2"/>
+      <c r="I14" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -3453,7 +3477,9 @@
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="2"/>
+      <c r="I15" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -3501,7 +3527,9 @@
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="2"/>
+      <c r="I16" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -3544,12 +3572,14 @@
       <c r="E17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>16</v>
+      <c r="F17" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="2"/>
+      <c r="I17" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -3592,12 +3622,14 @@
       <c r="E18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>16</v>
+      <c r="F18" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="2"/>
+      <c r="I18" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -3647,7 +3679,7 @@
       </c>
       <c r="C21" s="2">
         <f>COUNTIF(F3:AJ3,"WFH")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
@@ -3660,7 +3692,7 @@
       </c>
       <c r="C22" s="2">
         <f t="shared" ref="C22:C34" si="1">COUNTIF(F4:AJ4,"WFH")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
@@ -3673,7 +3705,7 @@
       </c>
       <c r="C23" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
@@ -3686,7 +3718,7 @@
       </c>
       <c r="C24" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
@@ -3699,7 +3731,7 @@
       </c>
       <c r="C25" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
@@ -3712,7 +3744,7 @@
       </c>
       <c r="C26" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
@@ -3725,7 +3757,7 @@
       </c>
       <c r="C27" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
@@ -3738,7 +3770,7 @@
       </c>
       <c r="C28" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
@@ -3751,7 +3783,7 @@
       </c>
       <c r="C29" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
@@ -3764,7 +3796,7 @@
       </c>
       <c r="C30" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
@@ -3777,7 +3809,7 @@
       </c>
       <c r="C31" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
@@ -3790,7 +3822,7 @@
       </c>
       <c r="C32" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -3799,7 +3831,7 @@
       </c>
       <c r="B33" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="1"/>
@@ -3829,7 +3861,7 @@
       </c>
       <c r="C35" s="2">
         <f>COUNTIF(F17:AJ17,"WFH")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -3842,7 +3874,7 @@
       </c>
       <c r="C36" s="2">
         <f>COUNTIF(F18:AJ18,"WFH")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/wcs-dev/WCS_DEV_tracker.xlsx
+++ b/data/wcs-dev/WCS_DEV_tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rethin\projects\wfo_tracker\data\wcs-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74510D0-099D-4119-95F2-51292D0195AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FCC1D8-4267-417D-AACF-85841221F842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
   </bookViews>
   <sheets>
     <sheet name="WCS_Team_July_2025" sheetId="12" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="38">
   <si>
     <t>Employee Name</t>
   </si>
@@ -2635,7 +2635,7 @@
   <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H11" sqref="H11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2880,7 +2880,9 @@
       <c r="I3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -2930,7 +2932,9 @@
       <c r="I4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -2980,7 +2984,9 @@
       <c r="I5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -3030,7 +3036,9 @@
       <c r="I6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -3080,7 +3088,9 @@
       <c r="I7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -3130,7 +3140,9 @@
       <c r="I8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -3180,7 +3192,9 @@
       <c r="I9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -3230,7 +3244,9 @@
       <c r="I10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -3280,7 +3296,9 @@
       <c r="I11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -3330,7 +3348,9 @@
       <c r="I12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -3380,7 +3400,9 @@
       <c r="I13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="J13" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -3430,7 +3452,9 @@
       <c r="I14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -3480,7 +3504,9 @@
       <c r="I15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="2"/>
+      <c r="J15" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -3530,7 +3556,9 @@
       <c r="I16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -3580,7 +3608,9 @@
       <c r="I17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="2"/>
+      <c r="J17" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -3630,7 +3660,9 @@
       <c r="I18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="2"/>
+      <c r="J18" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -3675,7 +3707,7 @@
       </c>
       <c r="B21" s="2">
         <f>COUNTIF(F3:AJ3,"WFO")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="2">
         <f>COUNTIF(F3:AJ3,"WFH")</f>
@@ -3688,7 +3720,7 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" ref="B22:B34" si="0">COUNTIF(F4:AJ4,"WFO")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ref="C22:C34" si="1">COUNTIF(F4:AJ4,"WFH")</f>
@@ -3705,7 +3737,7 @@
       </c>
       <c r="C23" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
@@ -3714,7 +3746,7 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="1"/>
@@ -3727,7 +3759,7 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="1"/>
@@ -3740,7 +3772,7 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="1"/>
@@ -3753,7 +3785,7 @@
       </c>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="1"/>
@@ -3766,7 +3798,7 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="1"/>
@@ -3779,7 +3811,7 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="1"/>
@@ -3792,7 +3824,7 @@
       </c>
       <c r="B30" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="1"/>
@@ -3805,7 +3837,7 @@
       </c>
       <c r="B31" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="1"/>
@@ -3818,7 +3850,7 @@
       </c>
       <c r="B32" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="1"/>
@@ -3831,7 +3863,7 @@
       </c>
       <c r="B33" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="1"/>
@@ -3857,7 +3889,7 @@
       </c>
       <c r="B35" s="2">
         <f>COUNTIF(F17:AJ17,"WFO")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" s="2">
         <f>COUNTIF(F17:AJ17,"WFH")</f>
@@ -3870,7 +3902,7 @@
       </c>
       <c r="B36" s="2">
         <f>COUNTIF(F18:AJ18,"WFO")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" s="2">
         <f>COUNTIF(F18:AJ18,"WFH")</f>

--- a/data/wcs-dev/WCS_DEV_tracker.xlsx
+++ b/data/wcs-dev/WCS_DEV_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rethin\projects\wfo_tracker\data\wcs-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FCC1D8-4267-417D-AACF-85841221F842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67972627-23B3-4ACE-BEEE-132873EF7F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="38">
   <si>
     <t>Employee Name</t>
   </si>
@@ -2635,7 +2635,7 @@
   <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:J11"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2883,9 +2883,15 @@
       <c r="J3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="K3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="2"/>
@@ -2935,9 +2941,15 @@
       <c r="J4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="K4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="2"/>
@@ -2987,9 +2999,15 @@
       <c r="J5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="K5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="2"/>
@@ -3039,9 +3057,15 @@
       <c r="J6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="K6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="2"/>
@@ -3091,9 +3115,15 @@
       <c r="J7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="K7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="2"/>
@@ -3143,9 +3173,15 @@
       <c r="J8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="K8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="2"/>
@@ -3195,9 +3231,15 @@
       <c r="J9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="K9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="2"/>
@@ -3247,9 +3289,15 @@
       <c r="J10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="K10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="2"/>
@@ -3299,9 +3347,15 @@
       <c r="J11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="K11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="2"/>
@@ -3351,9 +3405,15 @@
       <c r="J12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+      <c r="K12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="2"/>
@@ -3403,9 +3463,15 @@
       <c r="J13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="K13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="2"/>
@@ -3455,9 +3521,15 @@
       <c r="J14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
+      <c r="K14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="2"/>
@@ -3507,9 +3579,15 @@
       <c r="J15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
+      <c r="K15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="2"/>
@@ -3559,9 +3637,15 @@
       <c r="J16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
+      <c r="K16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="2"/>
@@ -3611,9 +3695,15 @@
       <c r="J17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
+      <c r="K17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="2"/>
@@ -3663,9 +3753,15 @@
       <c r="J18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
+      <c r="K18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="2"/>
@@ -3707,11 +3803,11 @@
       </c>
       <c r="B21" s="2">
         <f>COUNTIF(F3:AJ3,"WFO")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="2">
         <f>COUNTIF(F3:AJ3,"WFH")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
@@ -3720,11 +3816,11 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" ref="B22:B34" si="0">COUNTIF(F4:AJ4,"WFO")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ref="C22:C34" si="1">COUNTIF(F4:AJ4,"WFH")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
@@ -3733,11 +3829,11 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
@@ -3746,11 +3842,11 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
@@ -3759,11 +3855,11 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
@@ -3772,11 +3868,11 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
@@ -3785,11 +3881,11 @@
       </c>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
@@ -3798,11 +3894,11 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
@@ -3811,11 +3907,11 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
@@ -3824,11 +3920,11 @@
       </c>
       <c r="B30" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
@@ -3837,11 +3933,11 @@
       </c>
       <c r="B31" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
@@ -3850,11 +3946,11 @@
       </c>
       <c r="B32" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -3863,11 +3959,11 @@
       </c>
       <c r="B33" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -3889,11 +3985,11 @@
       </c>
       <c r="B35" s="2">
         <f>COUNTIF(F17:AJ17,"WFO")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35" s="2">
         <f>COUNTIF(F17:AJ17,"WFH")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -3902,11 +3998,11 @@
       </c>
       <c r="B36" s="2">
         <f>COUNTIF(F18:AJ18,"WFO")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C36" s="2">
         <f>COUNTIF(F18:AJ18,"WFH")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/wcs-dev/WCS_DEV_tracker.xlsx
+++ b/data/wcs-dev/WCS_DEV_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rethin\projects\wfo_tracker\data\wcs-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67972627-23B3-4ACE-BEEE-132873EF7F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17999DA8-4320-4483-9A70-3320BF58BB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
   </bookViews>
@@ -2635,7 +2635,7 @@
   <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3350,8 +3350,8 @@
       <c r="K11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>17</v>
+      <c r="L11" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>17</v>
@@ -3466,8 +3466,8 @@
       <c r="K13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="5" t="s">
-        <v>17</v>
+      <c r="L13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M13" s="5" t="s">
         <v>17</v>
@@ -3907,11 +3907,11 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
@@ -3933,11 +3933,11 @@
       </c>
       <c r="B31" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">

--- a/data/wcs-dev/WCS_DEV_tracker.xlsx
+++ b/data/wcs-dev/WCS_DEV_tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rethin\projects\wfo_tracker\data\wcs-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17999DA8-4320-4483-9A70-3320BF58BB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E4D3FC-D151-4A54-A3F2-83D53D063A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
   </bookViews>
   <sheets>
     <sheet name="WCS_Team_July_2025" sheetId="12" r:id="rId1"/>
@@ -2635,7 +2635,7 @@
   <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3005,8 +3005,8 @@
       <c r="L5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>17</v>
+      <c r="M5" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -3829,11 +3829,11 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">

--- a/data/wcs-dev/WCS_DEV_tracker.xlsx
+++ b/data/wcs-dev/WCS_DEV_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rethin\projects\wfo_tracker\data\wcs-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E4D3FC-D151-4A54-A3F2-83D53D063A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01473DA7-E556-467E-BBEB-42F1F24DE02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="38">
   <si>
     <t>Employee Name</t>
   </si>
@@ -2635,7 +2635,7 @@
   <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2894,7 +2894,9 @@
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
-      <c r="P3" s="2"/>
+      <c r="P3" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -2952,7 +2954,9 @@
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="2"/>
+      <c r="P4" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -3010,7 +3014,9 @@
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
-      <c r="P5" s="2"/>
+      <c r="P5" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
@@ -3068,7 +3074,9 @@
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="2"/>
+      <c r="P6" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -3126,7 +3134,9 @@
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="2"/>
+      <c r="P7" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -3184,7 +3194,9 @@
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="2"/>
+      <c r="P8" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
@@ -3242,7 +3254,9 @@
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
-      <c r="P9" s="2"/>
+      <c r="P9" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
@@ -3300,7 +3314,9 @@
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="2"/>
+      <c r="P10" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -3358,7 +3374,9 @@
       </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="2"/>
+      <c r="P11" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
@@ -3416,7 +3434,9 @@
       </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="2"/>
+      <c r="P12" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -3474,7 +3494,9 @@
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="2"/>
+      <c r="P13" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -3532,7 +3554,9 @@
       </c>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="2"/>
+      <c r="P14" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
@@ -3590,7 +3614,9 @@
       </c>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="2"/>
+      <c r="P15" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -3648,7 +3674,9 @@
       </c>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="2"/>
+      <c r="P16" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
@@ -3706,7 +3734,9 @@
       </c>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="2"/>
+      <c r="P17" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -3764,7 +3794,9 @@
       </c>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="2"/>
+      <c r="P18" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
@@ -3803,7 +3835,7 @@
       </c>
       <c r="B21" s="2">
         <f>COUNTIF(F3:AJ3,"WFO")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="2">
         <f>COUNTIF(F3:AJ3,"WFH")</f>
@@ -3816,7 +3848,7 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" ref="B22:B34" si="0">COUNTIF(F4:AJ4,"WFO")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ref="C22:C34" si="1">COUNTIF(F4:AJ4,"WFH")</f>
@@ -3829,7 +3861,7 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="1"/>
@@ -3842,7 +3874,7 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="1"/>
@@ -3855,7 +3887,7 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="1"/>
@@ -3868,7 +3900,7 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="1"/>
@@ -3885,7 +3917,7 @@
       </c>
       <c r="C27" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
@@ -3894,7 +3926,7 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="1"/>
@@ -3907,7 +3939,7 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="1"/>
@@ -3920,7 +3952,7 @@
       </c>
       <c r="B30" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="1"/>
@@ -3933,7 +3965,7 @@
       </c>
       <c r="B31" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="1"/>
@@ -3946,7 +3978,7 @@
       </c>
       <c r="B32" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="1"/>
@@ -3959,7 +3991,7 @@
       </c>
       <c r="B33" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="1"/>
@@ -3985,7 +4017,7 @@
       </c>
       <c r="B35" s="2">
         <f>COUNTIF(F17:AJ17,"WFO")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35" s="2">
         <f>COUNTIF(F17:AJ17,"WFH")</f>
@@ -3998,7 +4030,7 @@
       </c>
       <c r="B36" s="2">
         <f>COUNTIF(F18:AJ18,"WFO")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C36" s="2">
         <f>COUNTIF(F18:AJ18,"WFH")</f>

--- a/data/wcs-dev/WCS_DEV_tracker.xlsx
+++ b/data/wcs-dev/WCS_DEV_tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rethin\projects\wfo_tracker\data\wcs-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01473DA7-E556-467E-BBEB-42F1F24DE02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0735DE13-3C76-48A2-A1B6-DA3DADC23F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
   </bookViews>
   <sheets>
     <sheet name="WCS_Team_July_2025" sheetId="12" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="38">
   <si>
     <t>Employee Name</t>
   </si>
@@ -2635,7 +2635,7 @@
   <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2897,7 +2897,9 @@
       <c r="P3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="2"/>
+      <c r="Q3" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
@@ -2957,7 +2959,9 @@
       <c r="P4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="2"/>
+      <c r="Q4" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
@@ -3017,7 +3021,9 @@
       <c r="P5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="2"/>
+      <c r="Q5" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
@@ -3077,7 +3083,9 @@
       <c r="P6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="2"/>
+      <c r="Q6" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -3137,7 +3145,9 @@
       <c r="P7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="2"/>
+      <c r="Q7" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -3197,7 +3207,9 @@
       <c r="P8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" s="2"/>
+      <c r="Q8" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -3257,7 +3269,9 @@
       <c r="P9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="2"/>
+      <c r="Q9" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
@@ -3317,7 +3331,9 @@
       <c r="P10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q10" s="2"/>
+      <c r="Q10" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
@@ -3377,7 +3393,9 @@
       <c r="P11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="2"/>
+      <c r="Q11" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
@@ -3437,7 +3455,9 @@
       <c r="P12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q12" s="2"/>
+      <c r="Q12" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
@@ -3497,7 +3517,9 @@
       <c r="P13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="2"/>
+      <c r="Q13" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
@@ -3557,7 +3579,9 @@
       <c r="P14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="2"/>
+      <c r="Q14" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
@@ -3617,7 +3641,9 @@
       <c r="P15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q15" s="2"/>
+      <c r="Q15" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
@@ -3677,7 +3703,9 @@
       <c r="P16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Q16" s="2"/>
+      <c r="Q16" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
@@ -3737,7 +3765,9 @@
       <c r="P17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q17" s="2"/>
+      <c r="Q17" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
@@ -3797,7 +3827,9 @@
       <c r="P18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q18" s="2"/>
+      <c r="Q18" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
@@ -3835,7 +3867,7 @@
       </c>
       <c r="B21" s="2">
         <f>COUNTIF(F3:AJ3,"WFO")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" s="2">
         <f>COUNTIF(F3:AJ3,"WFH")</f>
@@ -3848,7 +3880,7 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" ref="B22:B34" si="0">COUNTIF(F4:AJ4,"WFO")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ref="C22:C34" si="1">COUNTIF(F4:AJ4,"WFH")</f>
@@ -3861,7 +3893,7 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="1"/>
@@ -3874,7 +3906,7 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="1"/>
@@ -3900,7 +3932,7 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="1"/>
@@ -3913,7 +3945,7 @@
       </c>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="1"/>
@@ -3926,7 +3958,7 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="1"/>
@@ -3939,7 +3971,7 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="1"/>
@@ -3952,7 +3984,7 @@
       </c>
       <c r="B30" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="1"/>
@@ -3965,7 +3997,7 @@
       </c>
       <c r="B31" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="1"/>
@@ -3978,7 +4010,7 @@
       </c>
       <c r="B32" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="1"/>
@@ -3991,7 +4023,7 @@
       </c>
       <c r="B33" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="1"/>
@@ -4017,7 +4049,7 @@
       </c>
       <c r="B35" s="2">
         <f>COUNTIF(F17:AJ17,"WFO")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C35" s="2">
         <f>COUNTIF(F17:AJ17,"WFH")</f>
@@ -4030,7 +4062,7 @@
       </c>
       <c r="B36" s="2">
         <f>COUNTIF(F18:AJ18,"WFO")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C36" s="2">
         <f>COUNTIF(F18:AJ18,"WFH")</f>

--- a/data/wcs-dev/WCS_DEV_tracker.xlsx
+++ b/data/wcs-dev/WCS_DEV_tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rethin\projects\wfo_tracker\data\wcs-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0735DE13-3C76-48A2-A1B6-DA3DADC23F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BFE1BC-B7DF-4468-8B1F-8D5CE3AAD150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
   </bookViews>
   <sheets>
     <sheet name="WCS_Team_July_2025" sheetId="12" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="38">
   <si>
     <t>Employee Name</t>
   </si>
@@ -2634,8 +2634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01D4692-18B4-4321-BCB3-B05860DBEFD8}">
   <dimension ref="A1:AJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3:R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2900,7 +2900,9 @@
       <c r="Q3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="2"/>
+      <c r="R3" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="6"/>
@@ -2962,7 +2964,9 @@
       <c r="Q4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="2"/>
+      <c r="R4" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="6"/>
@@ -3024,7 +3028,9 @@
       <c r="Q5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="2"/>
+      <c r="R5" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="6"/>
@@ -3086,7 +3092,9 @@
       <c r="Q6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R6" s="2"/>
+      <c r="R6" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="6"/>
@@ -3148,7 +3156,9 @@
       <c r="Q7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R7" s="2"/>
+      <c r="R7" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="6"/>
@@ -3210,7 +3220,9 @@
       <c r="Q8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="2"/>
+      <c r="R8" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="6"/>
@@ -3272,7 +3284,9 @@
       <c r="Q9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R9" s="2"/>
+      <c r="R9" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="6"/>
@@ -3334,7 +3348,9 @@
       <c r="Q10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R10" s="2"/>
+      <c r="R10" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="6"/>
@@ -3396,7 +3412,9 @@
       <c r="Q11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R11" s="2"/>
+      <c r="R11" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="6"/>
@@ -3458,7 +3476,9 @@
       <c r="Q12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R12" s="2"/>
+      <c r="R12" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="6"/>
@@ -3520,7 +3540,9 @@
       <c r="Q13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R13" s="2"/>
+      <c r="R13" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="6"/>
@@ -3582,7 +3604,9 @@
       <c r="Q14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R14" s="2"/>
+      <c r="R14" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="6"/>
@@ -3644,7 +3668,9 @@
       <c r="Q15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R15" s="2"/>
+      <c r="R15" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="6"/>
@@ -3706,7 +3732,9 @@
       <c r="Q16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R16" s="2"/>
+      <c r="R16" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="6"/>
@@ -3768,7 +3796,9 @@
       <c r="Q17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R17" s="2"/>
+      <c r="R17" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="6"/>
@@ -3830,7 +3860,9 @@
       <c r="Q18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R18" s="2"/>
+      <c r="R18" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="6"/>
@@ -3867,7 +3899,7 @@
       </c>
       <c r="B21" s="2">
         <f>COUNTIF(F3:AJ3,"WFO")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" s="2">
         <f>COUNTIF(F3:AJ3,"WFH")</f>
@@ -3880,7 +3912,7 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" ref="B22:B34" si="0">COUNTIF(F4:AJ4,"WFO")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ref="C22:C34" si="1">COUNTIF(F4:AJ4,"WFH")</f>
@@ -3893,7 +3925,7 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="1"/>
@@ -3906,7 +3938,7 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="1"/>
@@ -3932,7 +3964,7 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="1"/>
@@ -3945,7 +3977,7 @@
       </c>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="1"/>
@@ -3958,7 +3990,7 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="1"/>
@@ -3971,7 +4003,7 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="1"/>
@@ -3984,7 +4016,7 @@
       </c>
       <c r="B30" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="1"/>
@@ -3997,7 +4029,7 @@
       </c>
       <c r="B31" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="1"/>
@@ -4010,7 +4042,7 @@
       </c>
       <c r="B32" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="1"/>
@@ -4023,7 +4055,7 @@
       </c>
       <c r="B33" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="1"/>
@@ -4049,7 +4081,7 @@
       </c>
       <c r="B35" s="2">
         <f>COUNTIF(F17:AJ17,"WFO")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35" s="2">
         <f>COUNTIF(F17:AJ17,"WFH")</f>
@@ -4062,7 +4094,7 @@
       </c>
       <c r="B36" s="2">
         <f>COUNTIF(F18:AJ18,"WFO")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" s="2">
         <f>COUNTIF(F18:AJ18,"WFH")</f>

--- a/data/wcs-dev/WCS_DEV_tracker.xlsx
+++ b/data/wcs-dev/WCS_DEV_tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rethin\projects\wfo_tracker\data\wcs-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BFE1BC-B7DF-4468-8B1F-8D5CE3AAD150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3121838-E276-4E2B-B745-9F46D709B238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="39">
   <si>
     <t>Employee Name</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>PL</t>
+  </si>
+  <si>
+    <t>India Holiday</t>
   </si>
 </sst>
 </file>
@@ -695,17 +698,17 @@
       <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="36" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="36" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -815,7 +818,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -915,7 +918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1007,7 +1010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1099,7 +1102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1191,7 +1194,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1283,7 +1286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1375,7 +1378,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1467,7 +1470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1559,7 +1562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1651,7 +1654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1743,7 +1746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -1835,7 +1838,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1927,7 +1930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -2019,7 +2022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -2111,7 +2114,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -2203,7 +2206,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -2295,7 +2298,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -2387,7 +2390,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>0</v>
       </c>
@@ -2398,7 +2401,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
@@ -2411,7 +2414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
@@ -2424,7 +2427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
@@ -2437,7 +2440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -2450,7 +2453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -2463,7 +2466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -2476,7 +2479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -2489,7 +2492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
@@ -2502,7 +2505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
@@ -2515,7 +2518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
@@ -2528,7 +2531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
@@ -2541,7 +2544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
@@ -2554,7 +2557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
@@ -2567,7 +2570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
@@ -2580,7 +2583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
@@ -2593,7 +2596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
@@ -2635,20 +2638,20 @@
   <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:R18"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="36" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="36" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2758,7 +2761,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -2858,7 +2861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -2903,8 +2906,12 @@
       <c r="R3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="S3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
       <c r="W3" s="2"/>
@@ -2922,7 +2929,7 @@
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -2967,8 +2974,12 @@
       <c r="R4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
+      <c r="S4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
       <c r="W4" s="2"/>
@@ -2986,7 +2997,7 @@
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -3031,8 +3042,12 @@
       <c r="R5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
+      <c r="S5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="W5" s="2"/>
@@ -3050,7 +3065,7 @@
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -3095,8 +3110,12 @@
       <c r="R6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
+      <c r="S6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
       <c r="W6" s="2"/>
@@ -3114,7 +3133,7 @@
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -3159,8 +3178,12 @@
       <c r="R7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
+      <c r="S7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="2"/>
@@ -3178,7 +3201,7 @@
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -3223,8 +3246,12 @@
       <c r="R8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
+      <c r="S8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="2"/>
@@ -3242,7 +3269,7 @@
       <c r="AI8" s="6"/>
       <c r="AJ8" s="6"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -3287,8 +3314,12 @@
       <c r="R9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
+      <c r="S9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="2"/>
@@ -3306,7 +3337,7 @@
       <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -3351,8 +3382,12 @@
       <c r="R10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
+      <c r="S10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="2"/>
@@ -3370,7 +3405,7 @@
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -3415,8 +3450,12 @@
       <c r="R11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
+      <c r="S11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="2"/>
@@ -3434,7 +3473,7 @@
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -3479,8 +3518,12 @@
       <c r="R12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
+      <c r="S12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" s="2"/>
@@ -3498,7 +3541,7 @@
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -3543,8 +3586,12 @@
       <c r="R13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
+      <c r="S13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="2"/>
@@ -3562,7 +3609,7 @@
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -3607,8 +3654,12 @@
       <c r="R14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
+      <c r="S14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="2"/>
@@ -3626,7 +3677,7 @@
       <c r="AI14" s="6"/>
       <c r="AJ14" s="6"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -3671,8 +3722,12 @@
       <c r="R15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
+      <c r="S15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
       <c r="W15" s="2"/>
@@ -3690,7 +3745,7 @@
       <c r="AI15" s="6"/>
       <c r="AJ15" s="6"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -3735,8 +3790,12 @@
       <c r="R16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
+      <c r="S16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="2"/>
@@ -3754,7 +3813,7 @@
       <c r="AI16" s="6"/>
       <c r="AJ16" s="6"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -3799,8 +3858,12 @@
       <c r="R17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
+      <c r="S17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="2"/>
@@ -3818,7 +3881,7 @@
       <c r="AI17" s="6"/>
       <c r="AJ17" s="6"/>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -3863,8 +3926,12 @@
       <c r="R18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
+      <c r="S18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="W18" s="2"/>
@@ -3882,7 +3949,7 @@
       <c r="AI18" s="6"/>
       <c r="AJ18" s="6"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>0</v>
       </c>
@@ -3893,7 +3960,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
@@ -3903,10 +3970,10 @@
       </c>
       <c r="C21" s="2">
         <f>COUNTIF(F3:AJ3,"WFH")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
@@ -3916,10 +3983,10 @@
       </c>
       <c r="C22" s="2">
         <f t="shared" ref="C22:C34" si="1">COUNTIF(F4:AJ4,"WFH")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
@@ -3929,10 +3996,10 @@
       </c>
       <c r="C23" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -3942,10 +4009,10 @@
       </c>
       <c r="C24" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -3955,10 +4022,10 @@
       </c>
       <c r="C25" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -3968,10 +4035,10 @@
       </c>
       <c r="C26" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -3981,10 +4048,10 @@
       </c>
       <c r="C27" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
@@ -3994,10 +4061,10 @@
       </c>
       <c r="C28" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
@@ -4007,10 +4074,10 @@
       </c>
       <c r="C29" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
@@ -4020,10 +4087,10 @@
       </c>
       <c r="C30" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
@@ -4033,10 +4100,10 @@
       </c>
       <c r="C31" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
@@ -4046,10 +4113,10 @@
       </c>
       <c r="C32" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
@@ -4059,10 +4126,10 @@
       </c>
       <c r="C33" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
@@ -4075,7 +4142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
@@ -4085,10 +4152,10 @@
       </c>
       <c r="C35" s="2">
         <f>COUNTIF(F17:AJ17,"WFH")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
@@ -4098,7 +4165,7 @@
       </c>
       <c r="C36" s="2">
         <f>COUNTIF(F18:AJ18,"WFH")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/wcs-dev/WCS_DEV_tracker.xlsx
+++ b/data/wcs-dev/WCS_DEV_tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rethin\projects\wfo_tracker\data\wcs-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3121838-E276-4E2B-B745-9F46D709B238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BEC9D5-D250-4D75-9B4A-6703A6E7C047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
   </bookViews>
   <sheets>
     <sheet name="WCS_Team_July_2025" sheetId="12" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="39">
   <si>
     <t>Employee Name</t>
   </si>
@@ -698,17 +698,17 @@
       <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="36" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="36" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -818,7 +818,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -918,7 +918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>0</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
@@ -2637,21 +2637,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01D4692-18B4-4321-BCB3-B05860DBEFD8}">
   <dimension ref="A1:AJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="36" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="36" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -2861,7 +2861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -2914,11 +2914,21 @@
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
+      <c r="W3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="2"/>
@@ -2929,7 +2939,7 @@
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -2982,11 +2992,21 @@
       </c>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
+      <c r="W4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="2"/>
@@ -2997,7 +3017,7 @@
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -3050,11 +3070,21 @@
       </c>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
+      <c r="W5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="2"/>
@@ -3065,7 +3095,7 @@
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -3118,11 +3148,21 @@
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
+      <c r="W6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
       <c r="AD6" s="2"/>
@@ -3133,7 +3173,7 @@
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -3186,11 +3226,21 @@
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
+      <c r="W7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="2"/>
@@ -3201,7 +3251,7 @@
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -3254,11 +3304,21 @@
       </c>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
+      <c r="W8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
       <c r="AD8" s="2"/>
@@ -3269,7 +3329,7 @@
       <c r="AI8" s="6"/>
       <c r="AJ8" s="6"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -3322,11 +3382,21 @@
       </c>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
+      <c r="W9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AB9" s="6"/>
       <c r="AC9" s="6"/>
       <c r="AD9" s="2"/>
@@ -3337,7 +3407,7 @@
       <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -3390,11 +3460,21 @@
       </c>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
+      <c r="W10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
       <c r="AD10" s="2"/>
@@ -3405,7 +3485,7 @@
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -3458,11 +3538,21 @@
       </c>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
+      <c r="W11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA11" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
       <c r="AD11" s="2"/>
@@ -3473,7 +3563,7 @@
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -3526,11 +3616,21 @@
       </c>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
+      <c r="W12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA12" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
       <c r="AD12" s="2"/>
@@ -3541,7 +3641,7 @@
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -3594,11 +3694,21 @@
       </c>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
+      <c r="W13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA13" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
       <c r="AD13" s="2"/>
@@ -3609,7 +3719,7 @@
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -3662,11 +3772,21 @@
       </c>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
+      <c r="W14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA14" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
       <c r="AD14" s="2"/>
@@ -3677,7 +3797,7 @@
       <c r="AI14" s="6"/>
       <c r="AJ14" s="6"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -3730,11 +3850,21 @@
       </c>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
+      <c r="W15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA15" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
       <c r="AD15" s="2"/>
@@ -3745,7 +3875,7 @@
       <c r="AI15" s="6"/>
       <c r="AJ15" s="6"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -3798,11 +3928,21 @@
       </c>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
+      <c r="W16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA16" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="2"/>
@@ -3813,7 +3953,7 @@
       <c r="AI16" s="6"/>
       <c r="AJ16" s="6"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -3866,11 +4006,21 @@
       </c>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
+      <c r="W17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
       <c r="AD17" s="2"/>
@@ -3881,7 +4031,7 @@
       <c r="AI17" s="6"/>
       <c r="AJ17" s="6"/>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -3934,11 +4084,21 @@
       </c>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
+      <c r="W18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA18" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
       <c r="AD18" s="2"/>
@@ -3949,7 +4109,7 @@
       <c r="AI18" s="6"/>
       <c r="AJ18" s="6"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>0</v>
       </c>
@@ -3960,176 +4120,176 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="2">
         <f>COUNTIF(F3:AJ3,"WFO")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C21" s="2">
         <f>COUNTIF(F3:AJ3,"WFH")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="2">
         <f t="shared" ref="B22:B34" si="0">COUNTIF(F4:AJ4,"WFO")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ref="C22:C34" si="1">COUNTIF(F4:AJ4,"WFH")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B33" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
@@ -4139,33 +4299,33 @@
       </c>
       <c r="C34" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B35" s="2">
         <f>COUNTIF(F17:AJ17,"WFO")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C35" s="2">
         <f>COUNTIF(F17:AJ17,"WFH")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="2">
         <f>COUNTIF(F18:AJ18,"WFO")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C36" s="2">
         <f>COUNTIF(F18:AJ18,"WFH")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/wcs-dev/WCS_DEV_tracker.xlsx
+++ b/data/wcs-dev/WCS_DEV_tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rethin\projects\wfo_tracker\data\wcs-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BEC9D5-D250-4D75-9B4A-6703A6E7C047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442A0E97-EEF0-404D-814B-40C031B7C4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
   </bookViews>
   <sheets>
     <sheet name="WCS_Team_July_2025" sheetId="12" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="39">
   <si>
     <t>Employee Name</t>
   </si>
@@ -698,17 +698,17 @@
       <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="36" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="36" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -818,7 +818,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -918,7 +918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>0</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
@@ -2637,21 +2637,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01D4692-18B4-4321-BCB3-B05860DBEFD8}">
   <dimension ref="A1:AJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AA5" sqref="AA5"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3:AD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="36" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="36" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -2861,7 +2861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -2931,7 +2931,9 @@
       </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
-      <c r="AD3" s="2"/>
+      <c r="AD3" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
@@ -2939,7 +2941,7 @@
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -3009,7 +3011,9 @@
       </c>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
-      <c r="AD4" s="2"/>
+      <c r="AD4" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
@@ -3017,7 +3021,7 @@
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -3087,7 +3091,9 @@
       </c>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
-      <c r="AD5" s="2"/>
+      <c r="AD5" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
@@ -3095,7 +3101,7 @@
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -3165,7 +3171,9 @@
       </c>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
-      <c r="AD6" s="2"/>
+      <c r="AD6" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
@@ -3173,7 +3181,7 @@
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -3243,7 +3251,9 @@
       </c>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
-      <c r="AD7" s="2"/>
+      <c r="AD7" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
@@ -3251,7 +3261,7 @@
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -3321,7 +3331,9 @@
       </c>
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
-      <c r="AD8" s="2"/>
+      <c r="AD8" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
@@ -3329,7 +3341,7 @@
       <c r="AI8" s="6"/>
       <c r="AJ8" s="6"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -3399,7 +3411,9 @@
       </c>
       <c r="AB9" s="6"/>
       <c r="AC9" s="6"/>
-      <c r="AD9" s="2"/>
+      <c r="AD9" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
@@ -3407,7 +3421,7 @@
       <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -3477,7 +3491,9 @@
       </c>
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
-      <c r="AD10" s="2"/>
+      <c r="AD10" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
@@ -3485,7 +3501,7 @@
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -3555,7 +3571,9 @@
       </c>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
-      <c r="AD11" s="2"/>
+      <c r="AD11" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
@@ -3563,7 +3581,7 @@
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -3633,7 +3651,9 @@
       </c>
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
-      <c r="AD12" s="2"/>
+      <c r="AD12" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
@@ -3641,7 +3661,7 @@
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -3711,7 +3731,9 @@
       </c>
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
-      <c r="AD13" s="2"/>
+      <c r="AD13" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
@@ -3719,7 +3741,7 @@
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -3789,7 +3811,9 @@
       </c>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
-      <c r="AD14" s="2"/>
+      <c r="AD14" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
@@ -3797,7 +3821,7 @@
       <c r="AI14" s="6"/>
       <c r="AJ14" s="6"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -3867,7 +3891,9 @@
       </c>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
-      <c r="AD15" s="2"/>
+      <c r="AD15" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
@@ -3875,7 +3901,7 @@
       <c r="AI15" s="6"/>
       <c r="AJ15" s="6"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -3945,7 +3971,9 @@
       </c>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
-      <c r="AD16" s="2"/>
+      <c r="AD16" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
@@ -3953,7 +3981,7 @@
       <c r="AI16" s="6"/>
       <c r="AJ16" s="6"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -4023,7 +4051,9 @@
       </c>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
-      <c r="AD17" s="2"/>
+      <c r="AD17" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
@@ -4031,7 +4061,7 @@
       <c r="AI17" s="6"/>
       <c r="AJ17" s="6"/>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -4101,7 +4131,9 @@
       </c>
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
-      <c r="AD18" s="2"/>
+      <c r="AD18" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
@@ -4109,7 +4141,7 @@
       <c r="AI18" s="6"/>
       <c r="AJ18" s="6"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>0</v>
       </c>
@@ -4120,176 +4152,176 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="2">
         <f>COUNTIF(F3:AJ3,"WFO")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21" s="2">
         <f>COUNTIF(F3:AJ3,"WFH")</f>
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="2">
         <f t="shared" ref="B22:B34" si="0">COUNTIF(F4:AJ4,"WFO")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ref="C22:C34" si="1">COUNTIF(F4:AJ4,"WFH")</f>
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B33" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
@@ -4302,26 +4334,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B35" s="2">
         <f>COUNTIF(F17:AJ17,"WFO")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C35" s="2">
         <f>COUNTIF(F17:AJ17,"WFH")</f>
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="2">
         <f>COUNTIF(F18:AJ18,"WFO")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2">
         <f>COUNTIF(F18:AJ18,"WFH")</f>

--- a/data/wcs-dev/WCS_DEV_tracker.xlsx
+++ b/data/wcs-dev/WCS_DEV_tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rethin\projects\wfo_tracker\data\wcs-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442A0E97-EEF0-404D-814B-40C031B7C4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BECB945-A0AC-48DE-8CEF-1917CCCA91E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
   </bookViews>
   <sheets>
     <sheet name="WCS_Team_July_2025" sheetId="12" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="39">
   <si>
     <t>Employee Name</t>
   </si>
@@ -698,17 +698,17 @@
       <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="36" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="36" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -818,7 +818,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -918,7 +918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>0</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
@@ -2637,21 +2637,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01D4692-18B4-4321-BCB3-B05860DBEFD8}">
   <dimension ref="A1:AJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3:AD18"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AD9" sqref="O9:AD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="36" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="36" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -2861,7 +2861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -2934,14 +2934,16 @@
       <c r="AD3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AE3" s="2"/>
+      <c r="AE3" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -3014,14 +3016,16 @@
       <c r="AD4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AE4" s="2"/>
+      <c r="AE4" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -3094,14 +3098,16 @@
       <c r="AD5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AE5" s="2"/>
+      <c r="AE5" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -3174,14 +3180,16 @@
       <c r="AD6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AE6" s="2"/>
+      <c r="AE6" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -3254,14 +3262,16 @@
       <c r="AD7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AE7" s="2"/>
+      <c r="AE7" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -3334,14 +3344,16 @@
       <c r="AD8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AE8" s="2"/>
+      <c r="AE8" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
       <c r="AI8" s="6"/>
       <c r="AJ8" s="6"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -3411,17 +3423,19 @@
       </c>
       <c r="AB9" s="6"/>
       <c r="AC9" s="6"/>
-      <c r="AD9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE9" s="2"/>
+      <c r="AD9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE9" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
       <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -3494,14 +3508,16 @@
       <c r="AD10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AE10" s="2"/>
+      <c r="AE10" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -3574,14 +3590,16 @@
       <c r="AD11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AE11" s="2"/>
+      <c r="AE11" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -3654,14 +3672,16 @@
       <c r="AD12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AE12" s="2"/>
+      <c r="AE12" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -3734,14 +3754,16 @@
       <c r="AD13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AE13" s="2"/>
+      <c r="AE13" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -3814,14 +3836,16 @@
       <c r="AD14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AE14" s="2"/>
+      <c r="AE14" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
       <c r="AI14" s="6"/>
       <c r="AJ14" s="6"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -3894,14 +3918,16 @@
       <c r="AD15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AE15" s="2"/>
+      <c r="AE15" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
       <c r="AI15" s="6"/>
       <c r="AJ15" s="6"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -3974,14 +4000,16 @@
       <c r="AD16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AE16" s="2"/>
+      <c r="AE16" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
       <c r="AI16" s="6"/>
       <c r="AJ16" s="6"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -4054,14 +4082,16 @@
       <c r="AD17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AE17" s="2"/>
+      <c r="AE17" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
       <c r="AI17" s="6"/>
       <c r="AJ17" s="6"/>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -4134,14 +4164,16 @@
       <c r="AD18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AE18" s="2"/>
+      <c r="AE18" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
       <c r="AI18" s="6"/>
       <c r="AJ18" s="6"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>0</v>
       </c>
@@ -4152,33 +4184,33 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="2">
         <f>COUNTIF(F3:AJ3,"WFO")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" s="2">
         <f>COUNTIF(F3:AJ3,"WFH")</f>
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="2">
         <f t="shared" ref="B22:B34" si="0">COUNTIF(F4:AJ4,"WFO")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ref="C22:C34" si="1">COUNTIF(F4:AJ4,"WFH")</f>
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
@@ -4188,140 +4220,140 @@
       </c>
       <c r="C23" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B33" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
@@ -4334,26 +4366,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B35" s="2">
         <f>COUNTIF(F17:AJ17,"WFO")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C35" s="2">
         <f>COUNTIF(F17:AJ17,"WFH")</f>
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="2">
         <f>COUNTIF(F18:AJ18,"WFO")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C36" s="2">
         <f>COUNTIF(F18:AJ18,"WFH")</f>

--- a/data/wcs-dev/WCS_DEV_tracker.xlsx
+++ b/data/wcs-dev/WCS_DEV_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rethin\projects\wfo_tracker\data\wcs-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BECB945-A0AC-48DE-8CEF-1917CCCA91E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA669AF-4AF0-4E6C-AE56-572A6DC4B8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BB3BFA0C-538F-411B-ABFF-D727D65D2D40}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="39">
   <si>
     <t>Employee Name</t>
   </si>
@@ -2638,7 +2638,7 @@
   <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AD9" sqref="O9:AD9"/>
+      <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2937,8 +2937,12 @@
       <c r="AE3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
+      <c r="AF3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AH3" s="2"/>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
@@ -3019,8 +3023,12 @@
       <c r="AE4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
+      <c r="AF4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AH4" s="2"/>
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
@@ -3101,8 +3109,12 @@
       <c r="AE5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
+      <c r="AF5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AH5" s="2"/>
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
@@ -3183,8 +3195,12 @@
       <c r="AE6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
+      <c r="AF6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG6" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AH6" s="2"/>
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
@@ -3265,8 +3281,12 @@
       <c r="AE7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
+      <c r="AF7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG7" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AH7" s="2"/>
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
@@ -3347,8 +3367,12 @@
       <c r="AE8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
+      <c r="AF8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG8" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AH8" s="2"/>
       <c r="AI8" s="6"/>
       <c r="AJ8" s="6"/>
@@ -3429,8 +3453,12 @@
       <c r="AE9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
+      <c r="AF9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG9" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AH9" s="2"/>
       <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
@@ -3511,8 +3539,12 @@
       <c r="AE10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
+      <c r="AF10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG10" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AH10" s="2"/>
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
@@ -3593,8 +3625,12 @@
       <c r="AE11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
+      <c r="AF11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG11" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AH11" s="2"/>
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
@@ -3675,8 +3711,12 @@
       <c r="AE12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
+      <c r="AF12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG12" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AH12" s="2"/>
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
@@ -3757,8 +3797,12 @@
       <c r="AE13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
+      <c r="AF13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG13" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AH13" s="2"/>
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
@@ -3839,8 +3883,12 @@
       <c r="AE14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
+      <c r="AF14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG14" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AH14" s="2"/>
       <c r="AI14" s="6"/>
       <c r="AJ14" s="6"/>
@@ -3921,8 +3969,12 @@
       <c r="AE15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AF15" s="2"/>
-      <c r="AG15" s="2"/>
+      <c r="AF15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG15" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AH15" s="2"/>
       <c r="AI15" s="6"/>
       <c r="AJ15" s="6"/>
@@ -4003,8 +4055,12 @@
       <c r="AE16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
+      <c r="AF16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG16" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AH16" s="2"/>
       <c r="AI16" s="6"/>
       <c r="AJ16" s="6"/>
@@ -4085,8 +4141,12 @@
       <c r="AE17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AF17" s="2"/>
-      <c r="AG17" s="2"/>
+      <c r="AF17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG17" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AH17" s="2"/>
       <c r="AI17" s="6"/>
       <c r="AJ17" s="6"/>
@@ -4167,8 +4227,12 @@
       <c r="AE18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
+      <c r="AF18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG18" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AH18" s="2"/>
       <c r="AI18" s="6"/>
       <c r="AJ18" s="6"/>
@@ -4194,7 +4258,7 @@
       </c>
       <c r="C21" s="2">
         <f>COUNTIF(F3:AJ3,"WFH")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
@@ -4203,7 +4267,7 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" ref="B22:B34" si="0">COUNTIF(F4:AJ4,"WFO")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ref="C22:C34" si="1">COUNTIF(F4:AJ4,"WFH")</f>
@@ -4216,7 +4280,7 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="1"/>
@@ -4233,7 +4297,7 @@
       </c>
       <c r="C24" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
@@ -4246,7 +4310,7 @@
       </c>
       <c r="C25" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
@@ -4259,7 +4323,7 @@
       </c>
       <c r="C26" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
@@ -4272,7 +4336,7 @@
       </c>
       <c r="C27" s="2">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
@@ -4285,7 +4349,7 @@
       </c>
       <c r="C28" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
@@ -4294,7 +4358,7 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="1"/>
@@ -4311,7 +4375,7 @@
       </c>
       <c r="C30" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
@@ -4324,7 +4388,7 @@
       </c>
       <c r="C31" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
@@ -4337,7 +4401,7 @@
       </c>
       <c r="C32" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -4350,7 +4414,7 @@
       </c>
       <c r="C33" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -4363,7 +4427,7 @@
       </c>
       <c r="C34" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -4376,7 +4440,7 @@
       </c>
       <c r="C35" s="2">
         <f>COUNTIF(F17:AJ17,"WFH")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -4389,7 +4453,7 @@
       </c>
       <c r="C36" s="2">
         <f>COUNTIF(F18:AJ18,"WFH")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
